--- a/Data_frame/balancos_definitivos/BMIN3.xlsx
+++ b/Data_frame/balancos_definitivos/BMIN3.xlsx
@@ -894,34 +894,34 @@
         <v>226260</v>
       </c>
       <c r="AY2" t="n">
-        <v>36437553.152</v>
+        <v>236582</v>
       </c>
       <c r="AZ2" t="n">
-        <v>36930531.328</v>
+        <v>322728</v>
       </c>
       <c r="BA2" t="n">
-        <v>36995231.744</v>
+        <v>323144.992</v>
       </c>
       <c r="BB2" t="n">
-        <v>43170955.264</v>
+        <v>298092.992</v>
       </c>
       <c r="BC2" t="n">
-        <v>45790519.296</v>
+        <v>272688.992</v>
       </c>
       <c r="BD2" t="n">
-        <v>47011872.768</v>
+        <v>250032</v>
       </c>
       <c r="BE2" t="n">
-        <v>46508400.64</v>
+        <v>241192</v>
       </c>
       <c r="BF2" t="n">
-        <v>47284391.936</v>
+        <v>258248.992</v>
       </c>
       <c r="BG2" t="n">
-        <v>46996832.256</v>
+        <v>258652.992</v>
       </c>
       <c r="BH2" t="n">
-        <v>46665129.984</v>
+        <v>260448.992</v>
       </c>
       <c r="BI2" t="n">
         <v>266302</v>
@@ -1081,34 +1081,34 @@
         <v>59155</v>
       </c>
       <c r="AY3" t="n">
-        <v>13853750.272</v>
+        <v>84994</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12150194.176</v>
+        <v>99919</v>
       </c>
       <c r="BA3" t="n">
-        <v>13152653.312</v>
+        <v>98442</v>
       </c>
       <c r="BB3" t="n">
-        <v>17976549.376</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>20528246.784</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>21010944</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>20236179.456</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>18426767.36</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>22630301.696</v>
+        <v>0</v>
       </c>
       <c r="BH3" t="n">
-        <v>17905311.744</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1268,34 +1268,34 @@
         <v>470</v>
       </c>
       <c r="AY4" t="n">
-        <v>444544</v>
+        <v>764</v>
       </c>
       <c r="AZ4" t="n">
-        <v>292384</v>
+        <v>469</v>
       </c>
       <c r="BA4" t="n">
-        <v>359652</v>
+        <v>496</v>
       </c>
       <c r="BB4" t="n">
-        <v>291532</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>275876</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>277980</v>
+        <v>0</v>
       </c>
       <c r="BE4" t="n">
-        <v>365375.008</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>166268</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>204135.008</v>
+        <v>0</v>
       </c>
       <c r="BH4" t="n">
-        <v>192350</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>3773</v>
       </c>
       <c r="AY5" t="n">
-        <v>903318.0159999999</v>
+        <v>2108</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1311857.024</v>
+        <v>3019</v>
       </c>
       <c r="BA5" t="n">
-        <v>1180052.992</v>
+        <v>17946</v>
       </c>
       <c r="BB5" t="n">
-        <v>1688313.984</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1625568</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1976163.968</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>1634969.984</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>1145096.96</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>1588784</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
-        <v>2093248</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -1642,34 +1642,34 @@
         <v>20293</v>
       </c>
       <c r="AY6" t="n">
-        <v>1019654.976</v>
+        <v>24024</v>
       </c>
       <c r="AZ6" t="n">
-        <v>629212.032</v>
+        <v>32377</v>
       </c>
       <c r="BA6" t="n">
-        <v>709096</v>
+        <v>38749</v>
       </c>
       <c r="BB6" t="n">
-        <v>3635793.92</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>3790206.976</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>3081458.944</v>
+        <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>2014656</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>891257.9840000001</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>4217807.872</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
-        <v>4661239.808</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -1829,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>162044.992</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>197076</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>1161694.976</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>1651904</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>2151817.984</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>2067842.048</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>2199149.056</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>2183361.024</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>2125625.984</v>
+        <v>0</v>
       </c>
       <c r="BH7" t="n">
-        <v>1827696</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>0</v>
@@ -2203,34 +2203,34 @@
         <v>33854</v>
       </c>
       <c r="AY9" t="n">
-        <v>9600951.296</v>
+        <v>57463</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8118385.152</v>
+        <v>62955</v>
       </c>
       <c r="BA9" t="n">
-        <v>8006187.008</v>
+        <v>40851</v>
       </c>
       <c r="BB9" t="n">
-        <v>8891558.912</v>
+        <v>89686</v>
       </c>
       <c r="BC9" t="n">
-        <v>10493375.488</v>
+        <v>80547</v>
       </c>
       <c r="BD9" t="n">
-        <v>10910295.04</v>
+        <v>73120</v>
       </c>
       <c r="BE9" t="n">
-        <v>11566101.504</v>
+        <v>66086</v>
       </c>
       <c r="BF9" t="n">
-        <v>11716711.424</v>
+        <v>58593</v>
       </c>
       <c r="BG9" t="n">
-        <v>12049555.456</v>
+        <v>50956</v>
       </c>
       <c r="BH9" t="n">
-        <v>6830291.968</v>
+        <v>43552</v>
       </c>
       <c r="BI9" t="n">
         <v>1381</v>
@@ -2577,34 +2577,34 @@
         <v>245</v>
       </c>
       <c r="AY11" t="n">
-        <v>1594759.936</v>
+        <v>276</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1484337.024</v>
+        <v>901</v>
       </c>
       <c r="BA11" t="n">
-        <v>1584925.952</v>
+        <v>215</v>
       </c>
       <c r="BB11" t="n">
-        <v>1649421.056</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>1960118.016</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>2423454.976</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>2178688</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>2055433.984</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>2181859.072</v>
+        <v>0</v>
       </c>
       <c r="BH11" t="n">
-        <v>1978537.984</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -2764,34 +2764,34 @@
         <v>520</v>
       </c>
       <c r="AY12" t="n">
-        <v>128477</v>
+        <v>359</v>
       </c>
       <c r="AZ12" t="n">
-        <v>116943</v>
+        <v>198</v>
       </c>
       <c r="BA12" t="n">
-        <v>151044</v>
+        <v>185</v>
       </c>
       <c r="BB12" t="n">
-        <v>168026</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>231284</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>273750.016</v>
+        <v>0</v>
       </c>
       <c r="BE12" t="n">
-        <v>277240.992</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>268639.008</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>262535.008</v>
+        <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>321947.008</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -2951,34 +2951,34 @@
         <v>166868</v>
       </c>
       <c r="AY13" t="n">
-        <v>17832771.584</v>
+        <v>151380</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20177135.616</v>
+        <v>222660.992</v>
       </c>
       <c r="BA13" t="n">
-        <v>19137095.68</v>
+        <v>224604</v>
       </c>
       <c r="BB13" t="n">
-        <v>20438493.184</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>20386469.888</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>21037508.608</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>21225918.464</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>23666640.896</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>19138564.096</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>23422259.2</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -3138,34 +3138,34 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>140668</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7683</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>7870</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>8098</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>32921</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>33299</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>311348.992</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>917296</v>
+        <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>870673.024</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>343950.016</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -3325,34 +3325,34 @@
         <v>123961</v>
       </c>
       <c r="AY15" t="n">
-        <v>11332386.816</v>
+        <v>117021</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11606563.84</v>
+        <v>150900.992</v>
       </c>
       <c r="BA15" t="n">
-        <v>9957986.304</v>
+        <v>159072</v>
       </c>
       <c r="BB15" t="n">
-        <v>8916123.648</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>8846069.76</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>8966290.432</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>8447286.784</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>10740012.032</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>7116861.952</v>
+        <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>6003984.896</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -3886,34 +3886,34 @@
         <v>32542</v>
       </c>
       <c r="AY18" t="n">
-        <v>2916929.024</v>
+        <v>24067</v>
       </c>
       <c r="AZ18" t="n">
-        <v>5006320.128</v>
+        <v>61312</v>
       </c>
       <c r="BA18" t="n">
-        <v>5521583.104</v>
+        <v>55139</v>
       </c>
       <c r="BB18" t="n">
-        <v>7714980.864</v>
+        <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>7616136.192</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>8017738.752</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>8375377.92</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>7776276.992</v>
+        <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>6832453.12</v>
+        <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>12719827.968</v>
+        <v>0</v>
       </c>
       <c r="BI18" t="n">
         <v>0</v>
@@ -4260,34 +4260,34 @@
         <v>10365</v>
       </c>
       <c r="AY20" t="n">
-        <v>3335099.904</v>
+        <v>10292</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3456286.976</v>
+        <v>10448</v>
       </c>
       <c r="BA20" t="n">
-        <v>3550939.904</v>
+        <v>10393</v>
       </c>
       <c r="BB20" t="n">
-        <v>3698010.88</v>
+        <v>0</v>
       </c>
       <c r="BC20" t="n">
-        <v>3784705.024</v>
+        <v>0</v>
       </c>
       <c r="BD20" t="n">
-        <v>3911203.072</v>
+        <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>3991685.12</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
-        <v>4133008.896</v>
+        <v>0</v>
       </c>
       <c r="BG20" t="n">
-        <v>4213868.032</v>
+        <v>0</v>
       </c>
       <c r="BH20" t="n">
-        <v>4255485.952</v>
+        <v>0</v>
       </c>
       <c r="BI20" t="n">
         <v>0</v>
@@ -4447,34 +4447,34 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>107689</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>100281</v>
+        <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>98718</v>
+        <v>0</v>
       </c>
       <c r="BB21" t="n">
-        <v>101280</v>
+        <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>106638</v>
+        <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>108978</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>100219</v>
+        <v>0</v>
       </c>
       <c r="BF21" t="n">
-        <v>100047</v>
+        <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>104707</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="n">
-        <v>99010</v>
+        <v>0</v>
       </c>
       <c r="BI21" t="n">
         <v>0</v>
@@ -4634,34 +4634,34 @@
         <v>237</v>
       </c>
       <c r="AY22" t="n">
-        <v>4751027.2</v>
+        <v>208</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4603204.096</v>
+        <v>148</v>
       </c>
       <c r="BA22" t="n">
-        <v>4705483.776</v>
+        <v>99</v>
       </c>
       <c r="BB22" t="n">
-        <v>4755911.168</v>
+        <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>4875802.112</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>4963418.112</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>5046301.184</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>5190981.12</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
-        <v>5227964.928</v>
+        <v>0</v>
       </c>
       <c r="BH22" t="n">
-        <v>5337563.136</v>
+        <v>0</v>
       </c>
       <c r="BI22" t="n">
         <v>0</v>
@@ -4821,34 +4821,34 @@
         <v>237</v>
       </c>
       <c r="AY23" t="n">
-        <v>4463342.08</v>
+        <v>208</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4292507.904</v>
+        <v>148</v>
       </c>
       <c r="BA23" t="n">
-        <v>4381398.016</v>
+        <v>99</v>
       </c>
       <c r="BB23" t="n">
-        <v>4407439.872</v>
+        <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>4505209.856</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>4577783.808</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>4632387.072</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>4752159.744</v>
+        <v>0</v>
       </c>
       <c r="BG23" t="n">
-        <v>4759736.832</v>
+        <v>0</v>
       </c>
       <c r="BH23" t="n">
-        <v>4849798.144</v>
+        <v>0</v>
       </c>
       <c r="BI23" t="n">
         <v>0</v>
@@ -5008,34 +5008,34 @@
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>66884</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>65991</v>
+        <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>64428</v>
+        <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>67561</v>
+        <v>0</v>
       </c>
       <c r="BC24" t="n">
-        <v>67378</v>
+        <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>65944</v>
+        <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>64968</v>
+        <v>0</v>
       </c>
       <c r="BF24" t="n">
-        <v>63033</v>
+        <v>0</v>
       </c>
       <c r="BG24" t="n">
-        <v>60551</v>
+        <v>0</v>
       </c>
       <c r="BH24" t="n">
-        <v>56521</v>
+        <v>0</v>
       </c>
       <c r="BI24" t="n">
         <v>0</v>
@@ -5382,34 +5382,34 @@
         <v>0</v>
       </c>
       <c r="AY26" t="n">
-        <v>220800.992</v>
+        <v>0</v>
       </c>
       <c r="AZ26" t="n">
-        <v>244704.992</v>
+        <v>0</v>
       </c>
       <c r="BA26" t="n">
-        <v>259658</v>
+        <v>0</v>
       </c>
       <c r="BB26" t="n">
-        <v>280910.016</v>
+        <v>0</v>
       </c>
       <c r="BC26" t="n">
-        <v>303214.016</v>
+        <v>0</v>
       </c>
       <c r="BD26" t="n">
-        <v>319689.984</v>
+        <v>0</v>
       </c>
       <c r="BE26" t="n">
-        <v>348945.984</v>
+        <v>0</v>
       </c>
       <c r="BF26" t="n">
-        <v>375788</v>
+        <v>0</v>
       </c>
       <c r="BG26" t="n">
-        <v>407676.992</v>
+        <v>0</v>
       </c>
       <c r="BH26" t="n">
-        <v>431244</v>
+        <v>0</v>
       </c>
       <c r="BI26" t="n">
         <v>0</v>
@@ -5756,34 +5756,34 @@
         <v>226260</v>
       </c>
       <c r="AY28" t="n">
-        <v>36437553.152</v>
+        <v>236582</v>
       </c>
       <c r="AZ28" t="n">
-        <v>36930531.328</v>
+        <v>322728</v>
       </c>
       <c r="BA28" t="n">
-        <v>36995231.744</v>
+        <v>323144.992</v>
       </c>
       <c r="BB28" t="n">
-        <v>43170955.264</v>
+        <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>45790519.296</v>
+        <v>0</v>
       </c>
       <c r="BD28" t="n">
-        <v>47011872.768</v>
+        <v>0</v>
       </c>
       <c r="BE28" t="n">
-        <v>46508400.64</v>
+        <v>0</v>
       </c>
       <c r="BF28" t="n">
-        <v>47284391.936</v>
+        <v>0</v>
       </c>
       <c r="BG28" t="n">
-        <v>46996832.256</v>
+        <v>0</v>
       </c>
       <c r="BH28" t="n">
-        <v>46665129.984</v>
+        <v>0</v>
       </c>
       <c r="BI28" t="n">
         <v>0</v>
@@ -5943,34 +5943,34 @@
         <v>72383</v>
       </c>
       <c r="AY29" t="n">
-        <v>17590048.768</v>
+        <v>82786</v>
       </c>
       <c r="AZ29" t="n">
-        <v>17822183.424</v>
+        <v>77846</v>
       </c>
       <c r="BA29" t="n">
-        <v>16202523.648</v>
+        <v>72806</v>
       </c>
       <c r="BB29" t="n">
-        <v>19952588.8</v>
+        <v>0</v>
       </c>
       <c r="BC29" t="n">
-        <v>19863539.712</v>
+        <v>0</v>
       </c>
       <c r="BD29" t="n">
-        <v>18851713.024</v>
+        <v>0</v>
       </c>
       <c r="BE29" t="n">
-        <v>19118757.888</v>
+        <v>0</v>
       </c>
       <c r="BF29" t="n">
-        <v>21246875.648</v>
+        <v>0</v>
       </c>
       <c r="BG29" t="n">
-        <v>23513790.464</v>
+        <v>0</v>
       </c>
       <c r="BH29" t="n">
-        <v>24807667.712</v>
+        <v>0</v>
       </c>
       <c r="BI29" t="n">
         <v>0</v>
@@ -6130,34 +6130,34 @@
         <v>43129</v>
       </c>
       <c r="AY30" t="n">
-        <v>7998346.752</v>
+        <v>77747</v>
       </c>
       <c r="AZ30" t="n">
-        <v>8372192.768</v>
+        <v>51335</v>
       </c>
       <c r="BA30" t="n">
-        <v>8784334.847999999</v>
+        <v>48781</v>
       </c>
       <c r="BB30" t="n">
-        <v>8541886.976</v>
+        <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>8559348.223999999</v>
+        <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>9398876.16</v>
+        <v>0</v>
       </c>
       <c r="BE30" t="n">
-        <v>9991770.112</v>
+        <v>0</v>
       </c>
       <c r="BF30" t="n">
-        <v>11598504.96</v>
+        <v>0</v>
       </c>
       <c r="BG30" t="n">
-        <v>14638240.768</v>
+        <v>0</v>
       </c>
       <c r="BH30" t="n">
-        <v>16598279.168</v>
+        <v>0</v>
       </c>
       <c r="BI30" t="n">
         <v>0</v>
@@ -6317,34 +6317,34 @@
         <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>7000537.088</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5949663.232</v>
+        <v>0</v>
       </c>
       <c r="BA31" t="n">
-        <v>4189402.112</v>
+        <v>0</v>
       </c>
       <c r="BB31" t="n">
-        <v>8404916.223999999</v>
+        <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>7217844.224</v>
+        <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>6318845.952</v>
+        <v>0</v>
       </c>
       <c r="BE31" t="n">
-        <v>5554608.128</v>
+        <v>0</v>
       </c>
       <c r="BF31" t="n">
-        <v>5599523.84</v>
+        <v>0</v>
       </c>
       <c r="BG31" t="n">
-        <v>4490952.192</v>
+        <v>0</v>
       </c>
       <c r="BH31" t="n">
-        <v>3577478.912</v>
+        <v>0</v>
       </c>
       <c r="BI31" t="n">
         <v>0</v>
@@ -6504,34 +6504,34 @@
         <v>26861</v>
       </c>
       <c r="AY32" t="n">
-        <v>780409.024</v>
+        <v>3209</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1849075.968</v>
+        <v>22025</v>
       </c>
       <c r="BA32" t="n">
-        <v>1419426.944</v>
+        <v>21685</v>
       </c>
       <c r="BB32" t="n">
-        <v>1335624.96</v>
+        <v>0</v>
       </c>
       <c r="BC32" t="n">
-        <v>1856107.008</v>
+        <v>0</v>
       </c>
       <c r="BD32" t="n">
-        <v>616297.024</v>
+        <v>0</v>
       </c>
       <c r="BE32" t="n">
-        <v>866044.032</v>
+        <v>0</v>
       </c>
       <c r="BF32" t="n">
-        <v>1374096</v>
+        <v>0</v>
       </c>
       <c r="BG32" t="n">
-        <v>1227474.944</v>
+        <v>0</v>
       </c>
       <c r="BH32" t="n">
-        <v>1470130.048</v>
+        <v>0</v>
       </c>
       <c r="BI32" t="n">
         <v>0</v>
@@ -6691,34 +6691,34 @@
         <v>0</v>
       </c>
       <c r="AY33" t="n">
-        <v>188227.008</v>
+        <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>199820</v>
+        <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>230654</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
-        <v>267652</v>
+        <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>298944.992</v>
+        <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>383048.992</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
-        <v>366608.992</v>
+        <v>0</v>
       </c>
       <c r="BF33" t="n">
-        <v>347044</v>
+        <v>0</v>
       </c>
       <c r="BG33" t="n">
-        <v>336263.008</v>
+        <v>0</v>
       </c>
       <c r="BH33" t="n">
-        <v>301424</v>
+        <v>0</v>
       </c>
       <c r="BI33" t="n">
         <v>0</v>
@@ -7252,34 +7252,34 @@
         <v>0</v>
       </c>
       <c r="AY36" t="n">
-        <v>1972</v>
+        <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>45964</v>
+        <v>0</v>
       </c>
       <c r="BA36" t="n">
-        <v>46296</v>
+        <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>60441</v>
+        <v>0</v>
       </c>
       <c r="BC36" t="n">
-        <v>33118</v>
+        <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>18072</v>
+        <v>0</v>
       </c>
       <c r="BE36" t="n">
-        <v>13194</v>
+        <v>0</v>
       </c>
       <c r="BF36" t="n">
-        <v>3483</v>
+        <v>0</v>
       </c>
       <c r="BG36" t="n">
-        <v>9514</v>
+        <v>0</v>
       </c>
       <c r="BH36" t="n">
-        <v>10127</v>
+        <v>0</v>
       </c>
       <c r="BI36" t="n">
         <v>0</v>
@@ -7626,34 +7626,34 @@
         <v>2393</v>
       </c>
       <c r="AY38" t="n">
-        <v>1620556.032</v>
+        <v>1830</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1405468.032</v>
+        <v>4486</v>
       </c>
       <c r="BA38" t="n">
-        <v>1532409.984</v>
+        <v>2340</v>
       </c>
       <c r="BB38" t="n">
-        <v>1342066.944</v>
+        <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>1898178.048</v>
+        <v>0</v>
       </c>
       <c r="BD38" t="n">
-        <v>2116573.952</v>
+        <v>0</v>
       </c>
       <c r="BE38" t="n">
-        <v>2326533.12</v>
+        <v>0</v>
       </c>
       <c r="BF38" t="n">
-        <v>2324222.976</v>
+        <v>0</v>
       </c>
       <c r="BG38" t="n">
-        <v>2811344.896</v>
+        <v>0</v>
       </c>
       <c r="BH38" t="n">
-        <v>2850228.992</v>
+        <v>0</v>
       </c>
       <c r="BI38" t="n">
         <v>0</v>
@@ -7813,34 +7813,34 @@
         <v>27941</v>
       </c>
       <c r="AY39" t="n">
-        <v>14924998.656</v>
+        <v>27562</v>
       </c>
       <c r="AZ39" t="n">
-        <v>15245498.368</v>
+        <v>116261</v>
       </c>
       <c r="BA39" t="n">
-        <v>16931456</v>
+        <v>119005</v>
       </c>
       <c r="BB39" t="n">
-        <v>19379128.32</v>
+        <v>0</v>
       </c>
       <c r="BC39" t="n">
-        <v>22087915.52</v>
+        <v>0</v>
       </c>
       <c r="BD39" t="n">
-        <v>24220710.912</v>
+        <v>0</v>
       </c>
       <c r="BE39" t="n">
-        <v>23490908.16</v>
+        <v>0</v>
       </c>
       <c r="BF39" t="n">
-        <v>22198128.64</v>
+        <v>0</v>
       </c>
       <c r="BG39" t="n">
-        <v>19586816</v>
+        <v>0</v>
       </c>
       <c r="BH39" t="n">
-        <v>17932292.096</v>
+        <v>0</v>
       </c>
       <c r="BI39" t="n">
         <v>0</v>
@@ -8000,34 +8000,34 @@
         <v>19048</v>
       </c>
       <c r="AY40" t="n">
-        <v>11550072.832</v>
+        <v>18811</v>
       </c>
       <c r="AZ40" t="n">
-        <v>11855493.12</v>
+        <v>104640</v>
       </c>
       <c r="BA40" t="n">
-        <v>13297462.272</v>
+        <v>106041</v>
       </c>
       <c r="BB40" t="n">
-        <v>14971125.76</v>
+        <v>0</v>
       </c>
       <c r="BC40" t="n">
-        <v>17211951.104</v>
+        <v>0</v>
       </c>
       <c r="BD40" t="n">
-        <v>18531928.064</v>
+        <v>0</v>
       </c>
       <c r="BE40" t="n">
-        <v>18147344.384</v>
+        <v>0</v>
       </c>
       <c r="BF40" t="n">
-        <v>17139483.648</v>
+        <v>0</v>
       </c>
       <c r="BG40" t="n">
-        <v>14889969.664</v>
+        <v>0</v>
       </c>
       <c r="BH40" t="n">
-        <v>13220433.92</v>
+        <v>0</v>
       </c>
       <c r="BI40" t="n">
         <v>0</v>
@@ -8374,34 +8374,34 @@
         <v>0</v>
       </c>
       <c r="AY42" t="n">
-        <v>539854.976</v>
+        <v>0</v>
       </c>
       <c r="AZ42" t="n">
-        <v>524300</v>
+        <v>0</v>
       </c>
       <c r="BA42" t="n">
-        <v>756067.968</v>
+        <v>0</v>
       </c>
       <c r="BB42" t="n">
-        <v>1216200.96</v>
+        <v>0</v>
       </c>
       <c r="BC42" t="n">
-        <v>1054169.024</v>
+        <v>0</v>
       </c>
       <c r="BD42" t="n">
-        <v>1303090.944</v>
+        <v>0</v>
       </c>
       <c r="BE42" t="n">
-        <v>1115661.056</v>
+        <v>0</v>
       </c>
       <c r="BF42" t="n">
-        <v>672481.024</v>
+        <v>0</v>
       </c>
       <c r="BG42" t="n">
-        <v>378287.008</v>
+        <v>0</v>
       </c>
       <c r="BH42" t="n">
-        <v>306668</v>
+        <v>0</v>
       </c>
       <c r="BI42" t="n">
         <v>0</v>
@@ -9122,34 +9122,34 @@
         <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>507267.008</v>
+        <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>516608.992</v>
+        <v>0</v>
       </c>
       <c r="BA46" t="n">
-        <v>529134.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BB46" t="n">
-        <v>544513.024</v>
+        <v>0</v>
       </c>
       <c r="BC46" t="n">
-        <v>557462.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BD46" t="n">
-        <v>575387.008</v>
+        <v>0</v>
       </c>
       <c r="BE46" t="n">
-        <v>593990.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BF46" t="n">
-        <v>612675.008</v>
+        <v>0</v>
       </c>
       <c r="BG46" t="n">
-        <v>627430.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BH46" t="n">
-        <v>645276.032</v>
+        <v>0</v>
       </c>
       <c r="BI46" t="n">
         <v>0</v>
@@ -9496,34 +9496,34 @@
         <v>8893</v>
       </c>
       <c r="AY48" t="n">
-        <v>2327803.904</v>
+        <v>8751</v>
       </c>
       <c r="AZ48" t="n">
-        <v>2349095.936</v>
+        <v>11621</v>
       </c>
       <c r="BA48" t="n">
-        <v>2348792.064</v>
+        <v>12964</v>
       </c>
       <c r="BB48" t="n">
-        <v>2647289.088</v>
+        <v>0</v>
       </c>
       <c r="BC48" t="n">
-        <v>3264332.032</v>
+        <v>0</v>
       </c>
       <c r="BD48" t="n">
-        <v>3810305.024</v>
+        <v>0</v>
       </c>
       <c r="BE48" t="n">
-        <v>3633912.064</v>
+        <v>0</v>
       </c>
       <c r="BF48" t="n">
-        <v>3773488.128</v>
+        <v>0</v>
       </c>
       <c r="BG48" t="n">
-        <v>3691130.112</v>
+        <v>0</v>
       </c>
       <c r="BH48" t="n">
-        <v>3759912.96</v>
+        <v>0</v>
       </c>
       <c r="BI48" t="n">
         <v>0</v>
@@ -10057,34 +10057,34 @@
         <v>125936</v>
       </c>
       <c r="AY51" t="n">
-        <v>3922502.912</v>
+        <v>126234</v>
       </c>
       <c r="AZ51" t="n">
-        <v>3862851.072</v>
+        <v>128621</v>
       </c>
       <c r="BA51" t="n">
-        <v>3861253.888</v>
+        <v>131334</v>
       </c>
       <c r="BB51" t="n">
-        <v>3839237.888</v>
+        <v>132406</v>
       </c>
       <c r="BC51" t="n">
-        <v>3839062.016</v>
+        <v>134104</v>
       </c>
       <c r="BD51" t="n">
-        <v>3939448.064</v>
+        <v>132130</v>
       </c>
       <c r="BE51" t="n">
-        <v>3898734.08</v>
+        <v>133185</v>
       </c>
       <c r="BF51" t="n">
-        <v>3839386.112</v>
+        <v>134886</v>
       </c>
       <c r="BG51" t="n">
-        <v>3896222.976</v>
+        <v>137006</v>
       </c>
       <c r="BH51" t="n">
-        <v>3925174.016</v>
+        <v>132658</v>
       </c>
       <c r="BI51" t="n">
         <v>136460</v>
@@ -10244,34 +10244,34 @@
         <v>82028</v>
       </c>
       <c r="AY52" t="n">
-        <v>3742571.008</v>
+        <v>82028</v>
       </c>
       <c r="AZ52" t="n">
-        <v>3742571.008</v>
+        <v>82028</v>
       </c>
       <c r="BA52" t="n">
-        <v>3742571.008</v>
+        <v>82028</v>
       </c>
       <c r="BB52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BC52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BD52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BG52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BH52" t="n">
-        <v>3742571.008</v>
+        <v>0</v>
       </c>
       <c r="BI52" t="n">
         <v>0</v>
@@ -10431,34 +10431,34 @@
         <v>9000</v>
       </c>
       <c r="AY53" t="n">
-        <v>9962</v>
+        <v>9000</v>
       </c>
       <c r="AZ53" t="n">
-        <v>9562</v>
+        <v>9000</v>
       </c>
       <c r="BA53" t="n">
-        <v>4683</v>
+        <v>9000</v>
       </c>
       <c r="BB53" t="n">
-        <v>8210</v>
+        <v>0</v>
       </c>
       <c r="BC53" t="n">
-        <v>12212</v>
+        <v>0</v>
       </c>
       <c r="BD53" t="n">
-        <v>13550</v>
+        <v>0</v>
       </c>
       <c r="BE53" t="n">
-        <v>9242</v>
+        <v>0</v>
       </c>
       <c r="BF53" t="n">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="BG53" t="n">
-        <v>15399</v>
+        <v>0</v>
       </c>
       <c r="BH53" t="n">
-        <v>25242</v>
+        <v>0</v>
       </c>
       <c r="BI53" t="n">
         <v>0</v>
@@ -10805,34 +10805,34 @@
         <v>31792</v>
       </c>
       <c r="AY55" t="n">
-        <v>430446.016</v>
+        <v>31792</v>
       </c>
       <c r="AZ55" t="n">
-        <v>433360</v>
+        <v>33168</v>
       </c>
       <c r="BA55" t="n">
-        <v>428172</v>
+        <v>33168</v>
       </c>
       <c r="BB55" t="n">
-        <v>426764.992</v>
+        <v>0</v>
       </c>
       <c r="BC55" t="n">
-        <v>426960</v>
+        <v>0</v>
       </c>
       <c r="BD55" t="n">
-        <v>445153.984</v>
+        <v>0</v>
       </c>
       <c r="BE55" t="n">
-        <v>411932.992</v>
+        <v>0</v>
       </c>
       <c r="BF55" t="n">
-        <v>383196</v>
+        <v>0</v>
       </c>
       <c r="BG55" t="n">
-        <v>365232</v>
+        <v>0</v>
       </c>
       <c r="BH55" t="n">
-        <v>399372</v>
+        <v>0</v>
       </c>
       <c r="BI55" t="n">
         <v>0</v>
@@ -10992,34 +10992,34 @@
         <v>3116</v>
       </c>
       <c r="AY56" t="n">
-        <v>-260476</v>
+        <v>2861</v>
       </c>
       <c r="AZ56" t="n">
-        <v>-322641.984</v>
+        <v>4425</v>
       </c>
       <c r="BA56" t="n">
-        <v>-314172</v>
+        <v>5859</v>
       </c>
       <c r="BB56" t="n">
-        <v>-338308</v>
+        <v>0</v>
       </c>
       <c r="BC56" t="n">
-        <v>-342680.992</v>
+        <v>0</v>
       </c>
       <c r="BD56" t="n">
-        <v>-261827.008</v>
+        <v>0</v>
       </c>
       <c r="BE56" t="n">
-        <v>-265012</v>
+        <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>-304159.008</v>
+        <v>0</v>
       </c>
       <c r="BG56" t="n">
-        <v>-226979.008</v>
+        <v>0</v>
       </c>
       <c r="BH56" t="n">
-        <v>-242011.008</v>
+        <v>0</v>
       </c>
       <c r="BI56" t="n">
         <v>0</v>
@@ -11179,13 +11179,13 @@
         <v>0</v>
       </c>
       <c r="AY57" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="AZ57" t="n">
         <v>0</v>
       </c>
       <c r="BA57" t="n">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="BB57" t="n">
         <v>0</v>
@@ -11366,34 +11366,34 @@
         <v>2694</v>
       </c>
       <c r="AY58" t="n">
-        <v>1145176.96</v>
+        <v>9210</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1363353.344</v>
+        <v>8471</v>
       </c>
       <c r="BA58" t="n">
-        <v>1329968</v>
+        <v>11938</v>
       </c>
       <c r="BB58" t="n">
-        <v>1537206.016</v>
+        <v>11320</v>
       </c>
       <c r="BC58" t="n">
-        <v>1718625.024</v>
+        <v>9720</v>
       </c>
       <c r="BD58" t="n">
-        <v>1663925.888</v>
+        <v>8617</v>
       </c>
       <c r="BE58" t="n">
-        <v>1826098.944</v>
+        <v>9214</v>
       </c>
       <c r="BF58" t="n">
-        <v>1843024</v>
+        <v>9228</v>
       </c>
       <c r="BG58" t="n">
-        <v>1851474.048</v>
+        <v>8334</v>
       </c>
       <c r="BH58" t="n">
-        <v>1784949.76</v>
+        <v>7143</v>
       </c>
       <c r="BI58" t="n">
         <v>8457</v>
@@ -11553,34 +11553,34 @@
         <v>-530</v>
       </c>
       <c r="AY59" t="n">
-        <v>-708830.976</v>
+        <v>-3922</v>
       </c>
       <c r="AZ59" t="n">
-        <v>-942420.992</v>
+        <v>-4637</v>
       </c>
       <c r="BA59" t="n">
-        <v>-859566.0159999999</v>
+        <v>-5111</v>
       </c>
       <c r="BB59" t="n">
-        <v>-1149542.016</v>
+        <v>-5486</v>
       </c>
       <c r="BC59" t="n">
-        <v>-1353753.984</v>
+        <v>-4083</v>
       </c>
       <c r="BD59" t="n">
-        <v>-1290886.144</v>
+        <v>-3342</v>
       </c>
       <c r="BE59" t="n">
-        <v>-1502876.032</v>
+        <v>-3569</v>
       </c>
       <c r="BF59" t="n">
-        <v>-1533779.968</v>
+        <v>-3987</v>
       </c>
       <c r="BG59" t="n">
-        <v>-1466621.056</v>
+        <v>-3361</v>
       </c>
       <c r="BH59" t="n">
-        <v>-1342211.072</v>
+        <v>-2810</v>
       </c>
       <c r="BI59" t="n">
         <v>-3940</v>
@@ -11740,34 +11740,34 @@
         <v>2164</v>
       </c>
       <c r="AY60" t="n">
-        <v>436345.984</v>
+        <v>5288</v>
       </c>
       <c r="AZ60" t="n">
-        <v>420932.032</v>
+        <v>3834</v>
       </c>
       <c r="BA60" t="n">
-        <v>470401.984</v>
+        <v>6827</v>
       </c>
       <c r="BB60" t="n">
-        <v>387664</v>
+        <v>5834</v>
       </c>
       <c r="BC60" t="n">
-        <v>364871.008</v>
+        <v>5637</v>
       </c>
       <c r="BD60" t="n">
-        <v>373039.968</v>
+        <v>5275</v>
       </c>
       <c r="BE60" t="n">
-        <v>323223.008</v>
+        <v>5645</v>
       </c>
       <c r="BF60" t="n">
-        <v>309244</v>
+        <v>5241</v>
       </c>
       <c r="BG60" t="n">
-        <v>384852.992</v>
+        <v>4973</v>
       </c>
       <c r="BH60" t="n">
-        <v>442739.008</v>
+        <v>4333</v>
       </c>
       <c r="BI60" t="n">
         <v>4517</v>
@@ -11927,35 +11927,19 @@
         <v>39</v>
       </c>
       <c r="AY61" t="n">
-        <v>-503291.008</v>
+        <v>-2544</v>
       </c>
       <c r="AZ61" t="n">
-        <v>-411876</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>-470808.992</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>-412100.992</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>-386663.008</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>-394760.064</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>-415391.008</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>-448660</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>-368318.016</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>-355012.992</v>
-      </c>
+        <v>-1235</v>
+      </c>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
       <c r="BI61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -12112,34 +12096,34 @@
         <v>2244</v>
       </c>
       <c r="AY62" t="n">
-        <v>20159</v>
+        <v>2041</v>
       </c>
       <c r="AZ62" t="n">
-        <v>21181</v>
+        <v>1728</v>
       </c>
       <c r="BA62" t="n">
-        <v>21554</v>
+        <v>256</v>
       </c>
       <c r="BB62" t="n">
-        <v>29430</v>
+        <v>475</v>
       </c>
       <c r="BC62" t="n">
-        <v>40059</v>
+        <v>175</v>
       </c>
       <c r="BD62" t="n">
-        <v>55419</v>
+        <v>65</v>
       </c>
       <c r="BE62" t="n">
-        <v>67665</v>
+        <v>1413</v>
       </c>
       <c r="BF62" t="n">
-        <v>47442</v>
+        <v>1705</v>
       </c>
       <c r="BG62" t="n">
-        <v>47664</v>
+        <v>843</v>
       </c>
       <c r="BH62" t="n">
-        <v>50853</v>
+        <v>1810</v>
       </c>
       <c r="BI62" t="n">
         <v>736</v>
@@ -12299,34 +12283,34 @@
         <v>-1353</v>
       </c>
       <c r="AY63" t="n">
-        <v>-70578</v>
+        <v>-1356</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-76051</v>
+        <v>-1199</v>
       </c>
       <c r="BA63" t="n">
-        <v>-77715</v>
+        <v>-1514</v>
       </c>
       <c r="BB63" t="n">
-        <v>-86232</v>
+        <v>-1640</v>
       </c>
       <c r="BC63" t="n">
-        <v>-81162</v>
+        <v>-1780</v>
       </c>
       <c r="BD63" t="n">
-        <v>-87031.992</v>
+        <v>-2005</v>
       </c>
       <c r="BE63" t="n">
-        <v>-81263</v>
+        <v>-2115</v>
       </c>
       <c r="BF63" t="n">
-        <v>-83882</v>
+        <v>-1888</v>
       </c>
       <c r="BG63" t="n">
-        <v>-78690</v>
+        <v>-1886</v>
       </c>
       <c r="BH63" t="n">
-        <v>-81525.992</v>
+        <v>-2091</v>
       </c>
       <c r="BI63" t="n">
         <v>-1684</v>
@@ -12486,34 +12470,34 @@
         <v>-679</v>
       </c>
       <c r="AY64" t="n">
-        <v>-254754</v>
+        <v>-913</v>
       </c>
       <c r="AZ64" t="n">
-        <v>-246915.008</v>
+        <v>-1365</v>
       </c>
       <c r="BA64" t="n">
-        <v>-233514</v>
+        <v>-2662</v>
       </c>
       <c r="BB64" t="n">
-        <v>-266486</v>
+        <v>-1179</v>
       </c>
       <c r="BC64" t="n">
-        <v>-266726</v>
+        <v>-1123</v>
       </c>
       <c r="BD64" t="n">
-        <v>-267110.992</v>
+        <v>-989</v>
       </c>
       <c r="BE64" t="n">
-        <v>-287811.008</v>
+        <v>-1129</v>
       </c>
       <c r="BF64" t="n">
-        <v>-281507.008</v>
+        <v>-981</v>
       </c>
       <c r="BG64" t="n">
-        <v>-259007.008</v>
+        <v>-1215</v>
       </c>
       <c r="BH64" t="n">
-        <v>-257960.032</v>
+        <v>-608</v>
       </c>
       <c r="BI64" t="n">
         <v>-622</v>
@@ -12673,34 +12657,34 @@
         <v>-294</v>
       </c>
       <c r="AY65" t="n">
-        <v>-32253</v>
+        <v>-411</v>
       </c>
       <c r="AZ65" t="n">
-        <v>-32642</v>
+        <v>-304</v>
       </c>
       <c r="BA65" t="n">
-        <v>-41859</v>
+        <v>-250</v>
       </c>
       <c r="BB65" t="n">
-        <v>-43102</v>
+        <v>-244</v>
       </c>
       <c r="BC65" t="n">
-        <v>-41617</v>
+        <v>-161</v>
       </c>
       <c r="BD65" t="n">
-        <v>-41358</v>
+        <v>-196</v>
       </c>
       <c r="BE65" t="n">
-        <v>-29916</v>
+        <v>-316</v>
       </c>
       <c r="BF65" t="n">
-        <v>-32267</v>
+        <v>-310</v>
       </c>
       <c r="BG65" t="n">
-        <v>-31985</v>
+        <v>-240</v>
       </c>
       <c r="BH65" t="n">
-        <v>-40291.008</v>
+        <v>-287</v>
       </c>
       <c r="BI65" t="n">
         <v>-228</v>
@@ -12860,34 +12844,34 @@
         <v>172</v>
       </c>
       <c r="AY66" t="n">
-        <v>193780</v>
+        <v>166</v>
       </c>
       <c r="AZ66" t="n">
-        <v>138747.008</v>
+        <v>39</v>
       </c>
       <c r="BA66" t="n">
-        <v>87219</v>
+        <v>180</v>
       </c>
       <c r="BB66" t="n">
-        <v>137958</v>
+        <v>65</v>
       </c>
       <c r="BC66" t="n">
-        <v>165560.992</v>
+        <v>50</v>
       </c>
       <c r="BD66" t="n">
-        <v>151079.04</v>
+        <v>29</v>
       </c>
       <c r="BE66" t="n">
-        <v>162228</v>
+        <v>377</v>
       </c>
       <c r="BF66" t="n">
-        <v>131785</v>
+        <v>26</v>
       </c>
       <c r="BG66" t="n">
-        <v>149724</v>
+        <v>16</v>
       </c>
       <c r="BH66" t="n">
-        <v>127528.024</v>
+        <v>15</v>
       </c>
       <c r="BI66" t="n">
         <v>185</v>
@@ -13047,34 +13031,34 @@
         <v>-41</v>
       </c>
       <c r="AY67" t="n">
-        <v>-418680.992</v>
+        <v>-2011</v>
       </c>
       <c r="AZ67" t="n">
-        <v>-256994.016</v>
+        <v>-85</v>
       </c>
       <c r="BA67" t="n">
-        <v>-230512.992</v>
+        <v>1403</v>
       </c>
       <c r="BB67" t="n">
-        <v>-281276</v>
+        <v>-57</v>
       </c>
       <c r="BC67" t="n">
-        <v>-299859.008</v>
+        <v>-145</v>
       </c>
       <c r="BD67" t="n">
-        <v>-266748.032</v>
+        <v>-83</v>
       </c>
       <c r="BE67" t="n">
-        <v>-308788.992</v>
+        <v>-78</v>
       </c>
       <c r="BF67" t="n">
-        <v>-315960</v>
+        <v>-136</v>
       </c>
       <c r="BG67" t="n">
-        <v>-305556</v>
+        <v>-14</v>
       </c>
       <c r="BH67" t="n">
-        <v>-261381.024</v>
+        <v>-74</v>
       </c>
       <c r="BI67" t="n">
         <v>-111</v>
@@ -13234,34 +13218,34 @@
         <v>-10</v>
       </c>
       <c r="AY68" t="n">
-        <v>59036</v>
+        <v>-60</v>
       </c>
       <c r="AZ68" t="n">
-        <v>40798.008</v>
+        <v>-49</v>
       </c>
       <c r="BA68" t="n">
-        <v>4019</v>
+        <v>-58</v>
       </c>
       <c r="BB68" t="n">
-        <v>97607</v>
+        <v>176</v>
       </c>
       <c r="BC68" t="n">
-        <v>97081</v>
+        <v>4</v>
       </c>
       <c r="BD68" t="n">
-        <v>60991</v>
+        <v>7</v>
       </c>
       <c r="BE68" t="n">
-        <v>62495</v>
+        <v>5</v>
       </c>
       <c r="BF68" t="n">
-        <v>85729</v>
+        <v>5</v>
       </c>
       <c r="BG68" t="n">
-        <v>109532</v>
+        <v>3</v>
       </c>
       <c r="BH68" t="n">
-        <v>107764</v>
+        <v>7</v>
       </c>
       <c r="BI68" t="n">
         <v>5</v>
@@ -13421,35 +13405,19 @@
         <v>2203</v>
       </c>
       <c r="AY69" t="n">
-        <v>-66945</v>
+        <v>2744</v>
       </c>
       <c r="AZ69" t="n">
-        <v>9056</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>-407</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>-24437</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>-21792</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>-21720</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>-92168</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>-139416</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>16535</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>87726</v>
-      </c>
+        <v>2599</v>
+      </c>
+      <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr"/>
+      <c r="BD69" t="inlineStr"/>
+      <c r="BE69" t="inlineStr"/>
+      <c r="BF69" t="inlineStr"/>
+      <c r="BG69" t="inlineStr"/>
+      <c r="BH69" t="inlineStr"/>
       <c r="BI69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -13606,35 +13574,19 @@
         <v>0</v>
       </c>
       <c r="AY70" t="n">
-        <v>-49</v>
+        <v>3</v>
       </c>
       <c r="AZ70" t="n">
-        <v>3261</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>72</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>45</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>1011</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-1367</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>-132</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>-535</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>323</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA70" t="inlineStr"/>
+      <c r="BB70" t="inlineStr"/>
+      <c r="BC70" t="inlineStr"/>
+      <c r="BD70" t="inlineStr"/>
+      <c r="BE70" t="inlineStr"/>
+      <c r="BF70" t="inlineStr"/>
+      <c r="BG70" t="inlineStr"/>
+      <c r="BH70" t="inlineStr"/>
       <c r="BI70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -13791,35 +13743,19 @@
         <v>0</v>
       </c>
       <c r="AY71" t="n">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="AZ71" t="n">
-        <v>4780</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>548</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>76</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>1269</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>645</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>1275</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>205</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>435</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -13976,35 +13912,19 @@
         <v>0</v>
       </c>
       <c r="AY72" t="n">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="AZ72" t="n">
-        <v>-1519</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>-476</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>-31</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>-258</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>-2012</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>-1407</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>-740</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>-112</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>-524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -14161,34 +14081,34 @@
         <v>2203</v>
       </c>
       <c r="AY73" t="n">
-        <v>-66994</v>
+        <v>2747</v>
       </c>
       <c r="AZ73" t="n">
-        <v>12317</v>
+        <v>2599</v>
       </c>
       <c r="BA73" t="n">
-        <v>-335</v>
+        <v>4182</v>
       </c>
       <c r="BB73" t="n">
-        <v>-24392</v>
+        <v>3430</v>
       </c>
       <c r="BC73" t="n">
-        <v>-20781</v>
+        <v>2657</v>
       </c>
       <c r="BD73" t="n">
-        <v>-23087</v>
+        <v>2103</v>
       </c>
       <c r="BE73" t="n">
-        <v>-92300</v>
+        <v>3802</v>
       </c>
       <c r="BF73" t="n">
-        <v>-139951.008</v>
+        <v>3662</v>
       </c>
       <c r="BG73" t="n">
-        <v>16858</v>
+        <v>2480</v>
       </c>
       <c r="BH73" t="n">
-        <v>88053.008</v>
+        <v>3105</v>
       </c>
       <c r="BI73" t="n">
         <v>2798</v>
@@ -14348,34 +14268,34 @@
         <v>-761</v>
       </c>
       <c r="AY74" t="n">
-        <v>1251</v>
+        <v>-990</v>
       </c>
       <c r="AZ74" t="n">
-        <v>175868</v>
+        <v>-1148</v>
       </c>
       <c r="BA74" t="n">
-        <v>64707</v>
+        <v>-2002</v>
       </c>
       <c r="BB74" t="n">
-        <v>80113</v>
+        <v>-1692</v>
       </c>
       <c r="BC74" t="n">
-        <v>99549</v>
+        <v>1733</v>
       </c>
       <c r="BD74" t="n">
-        <v>114931.992</v>
+        <v>-1073</v>
       </c>
       <c r="BE74" t="n">
-        <v>125722</v>
+        <v>-1756</v>
       </c>
       <c r="BF74" t="n">
-        <v>136387.008</v>
+        <v>-1708</v>
       </c>
       <c r="BG74" t="n">
-        <v>97997</v>
+        <v>-244</v>
       </c>
       <c r="BH74" t="n">
-        <v>43388.008</v>
+        <v>-1462</v>
       </c>
       <c r="BI74" t="n">
         <v>-1285</v>
@@ -14535,35 +14455,19 @@
         <v>0</v>
       </c>
       <c r="AY75" t="n">
-        <v>135280.992</v>
+        <v>0</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-135280.992</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA75" t="inlineStr"/>
+      <c r="BB75" t="inlineStr"/>
+      <c r="BC75" t="inlineStr"/>
+      <c r="BD75" t="inlineStr"/>
+      <c r="BE75" t="inlineStr"/>
+      <c r="BF75" t="inlineStr"/>
+      <c r="BG75" t="inlineStr"/>
+      <c r="BH75" t="inlineStr"/>
       <c r="BI75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -14720,34 +14624,34 @@
         <v>-191</v>
       </c>
       <c r="AY76" t="n">
-        <v>-27152</v>
+        <v>-331</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-4667</v>
+        <v>-172</v>
       </c>
       <c r="BA76" t="n">
-        <v>-16066</v>
+        <v>0</v>
       </c>
       <c r="BB76" t="n">
-        <v>-4093</v>
+        <v>0</v>
       </c>
       <c r="BC76" t="n">
-        <v>-25323</v>
+        <v>172</v>
       </c>
       <c r="BD76" t="n">
-        <v>-19073</v>
+        <v>0</v>
       </c>
       <c r="BE76" t="n">
-        <v>-10524</v>
+        <v>0</v>
       </c>
       <c r="BF76" t="n">
-        <v>-10723</v>
+        <v>0</v>
       </c>
       <c r="BG76" t="n">
-        <v>-43194</v>
+        <v>0</v>
       </c>
       <c r="BH76" t="n">
-        <v>-7051</v>
+        <v>0</v>
       </c>
       <c r="BI76" t="n">
         <v>0</v>
@@ -14912,30 +14816,14 @@
       <c r="AZ77" t="n">
         <v>0</v>
       </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>0</v>
-      </c>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
+      <c r="BH77" t="inlineStr"/>
       <c r="BI77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -15159,34 +15047,34 @@
         <v>1251</v>
       </c>
       <c r="AY79" t="n">
-        <v>42386</v>
+        <v>1426</v>
       </c>
       <c r="AZ79" t="n">
-        <v>48237</v>
+        <v>1279</v>
       </c>
       <c r="BA79" t="n">
-        <v>48306</v>
+        <v>2180</v>
       </c>
       <c r="BB79" t="n">
-        <v>51628</v>
+        <v>1738</v>
       </c>
       <c r="BC79" t="n">
-        <v>53445</v>
+        <v>4562</v>
       </c>
       <c r="BD79" t="n">
-        <v>72772.008</v>
+        <v>1030</v>
       </c>
       <c r="BE79" t="n">
-        <v>22898</v>
+        <v>2046</v>
       </c>
       <c r="BF79" t="n">
-        <v>-14287</v>
+        <v>1954</v>
       </c>
       <c r="BG79" t="n">
-        <v>71661</v>
+        <v>2236</v>
       </c>
       <c r="BH79" t="n">
-        <v>124390</v>
+        <v>1643</v>
       </c>
       <c r="BI79" t="n">
         <v>1513</v>
